--- a/Excel Attendance Program/Student Attendance 9-27.xlsx
+++ b/Excel Attendance Program/Student Attendance 9-27.xlsx
@@ -608,7 +608,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5546875" customWidth="1" min="1" max="1"/>
     <col width="12.44140625" customWidth="1" min="3" max="3"/>
@@ -2135,7 +2135,11 @@
       <c r="D63" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E63" s="7" t="n"/>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>14:39</t>
+        </is>
+      </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8">
         <f>F63 - E63</f>
